--- a/Brothers_AMS/TemplateFiles/ExportReports/ManPowerMonitoring.xlsx
+++ b/Brothers_AMS/TemplateFiles/ExportReports/ManPowerMonitoring.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chest\Desktop\Brothers_AMS\Brothers_AMS\TemplateFiles\ExportReports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ce.ragas\Desktop\ExportReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7A0471F-EAA1-4710-8F3B-46837DB83A96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -69,7 +68,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="mm\-dd\-yyyy"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -101,9 +103,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,62 +385,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C9ED95-1AEB-48F4-9531-3F07E74094C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="3"/>
+    <col min="4" max="4" width="8.85546875" style="3"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
